--- a/FixtureBookTest/FixtureTest/Cast/Temp/DatabaseValidatorTest.xlsx
+++ b/FixtureBookTest/FixtureTest/Cast/Temp/DatabaseValidatorTest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="164">
   <si>
     <t>Y2Jh</t>
     <phoneticPr fontId="4"/>
@@ -695,6 +695,25 @@
   </si>
   <si>
     <t>検索列指定をしてデータベーステーブルの状態がチェックできる_Oracle</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>指定した検索列が存在しない場合はエラー</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1183,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AG344"/>
+  <dimension ref="B2:AG365"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A331" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C347" sqref="C347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
@@ -3758,7 +3777,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B344" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="346" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C346" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="348" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B348" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="349" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C349" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D349" s="4"/>
+    </row>
+    <row r="350" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D350" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="351" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D351" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="354" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B354" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C355" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D355" s="4"/>
+    </row>
+    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D356" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D357" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B360" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C361" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D361" s="4"/>
+    </row>
+    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D362" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D363" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="2:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
